--- a/medicine/Sexualité et sexologie/Épisodes_de_Série_rose/Épisodes_de_Série_rose.xlsx
+++ b/medicine/Sexualité et sexologie/Épisodes_de_Série_rose/Épisodes_de_Série_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pisodes_de_S%C3%A9rie_rose</t>
+          <t>Épisodes_de_Série_rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article présente le guide des épisodes de la série télévisée française Série rose.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pisodes_de_S%C3%A9rie_rose</t>
+          <t>Épisodes_de_Série_rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Épisode 1 : La Gageure des trois commères
+          <t>Épisode 1 : La Gageure des trois commères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 1Première diffusion
  France : 1986Réalisation
@@ -530,8 +548,43 @@
 Didier Pain (3e mari)
 Philippe Demarle (Damon)
 Résumé détaillé
-Aux bains, trois femmes débattent des caractères et des défauts de leurs maris respectifs. Chacune décide de trouver le moyen le plus ingénieux de le tromper.
-Épisode 2 : A la feuille de rose, maison turque
+Aux bains, trois femmes débattent des caractères et des défauts de leurs maris respectifs. Chacune décide de trouver le moyen le plus ingénieux de le tromper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Épisode 2 : A la feuille de rose, maison turque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 2Première diffusion
  France : 1986Réalisation
@@ -546,8 +599,43 @@
 Isabelle Petit-Jacques (Mme Beauflanquet)
 Catherine Walton Ward (Blondinette)
 Résumé détaillé
-Vers 1880. Monsieur et Madame Beauflanquet se rendent dans un hôtel qui leur a été recommandé par un ami. L'établissement a quelque chose de singulièrement curieux : on dirait une maison turque ! À Paris, tout paraît relever du plus fol exotisme pour ces bourgeois normands. Ce jeune couple qui s'imagine passer sa nuit de noces dans un hôtel se trouve en fait dans un lupanar de la pire espèce. Le maître des lieux fait croire que les femmes qui défilent dans le salon sont les femmes des ambassadeurs de Turquie. Monsieur et Madame Beauflanquet vont alors participer malgré eux à une nuit de débauche.
-Épisode 3 : Augustine
+Vers 1880. Monsieur et Madame Beauflanquet se rendent dans un hôtel qui leur a été recommandé par un ami. L'établissement a quelque chose de singulièrement curieux : on dirait une maison turque ! À Paris, tout paraît relever du plus fol exotisme pour ces bourgeois normands. Ce jeune couple qui s'imagine passer sa nuit de noces dans un hôtel se trouve en fait dans un lupanar de la pire espèce. Le maître des lieux fait croire que les femmes qui défilent dans le salon sont les femmes des ambassadeurs de Turquie. Monsieur et Madame Beauflanquet vont alors participer malgré eux à une nuit de débauche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Épisode 3 : Augustine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 3Première diffusion
  France : 1986Réalisation
@@ -560,8 +648,43 @@
 Marie-Christine Robert (Rosette)
 Francis Maquet (le Turc)
 Résumé détaillé
-Augustine de Villebranche est une jeune femme d'une grande beauté, réputée pour n'aimer que les personnes de son sexe. Fabrice, follement amoureux d'elle, n'en est pas, pour autant, découragé et grâce à une machination montée par son ami Charles, entend se rendre maître des résistances de la jeune femme. Invité à un bal masqué où doit paraître Augustine, il se déguise et sous des vêtements féminins qui soulignent encore la finesse de ses traits, il entreprend de la séduire…
-Épisode 4 : Une villa à la campagne
+Augustine de Villebranche est une jeune femme d'une grande beauté, réputée pour n'aimer que les personnes de son sexe. Fabrice, follement amoureux d'elle, n'en est pas, pour autant, découragé et grâce à une machination montée par son ami Charles, entend se rendre maître des résistances de la jeune femme. Invité à un bal masqué où doit paraître Augustine, il se déguise et sous des vêtements féminins qui soulignent encore la finesse de ses traits, il entreprend de la séduire…</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Épisode 4 : Une villa à la campagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 4Première diffusion
  France : 1986Réalisation
@@ -573,8 +696,43 @@
 André Lourdelle (le jeune homme)
 Jean Topart (le narrateur)
 Résumé détaillé
-Pavel Smirnov, jeune photographe, décide de partir en vacances à la campagne et loue une chambre dans la villa d'une veuve. Arrivé sur place, il constate que Sophie Orlova, sa logeuse, n'est pas la vieille dame qu'il imaginait mais une jeune femme extrêmement désirable. Séduit par son charme et sa beauté, il en tombe amoureux. Mais Sophie ignore les avances du jeune homme...
-Épisode 5 : Le Libertin de qualité
+Pavel Smirnov, jeune photographe, décide de partir en vacances à la campagne et loue une chambre dans la villa d'une veuve. Arrivé sur place, il constate que Sophie Orlova, sa logeuse, n'est pas la vieille dame qu'il imaginait mais une jeune femme extrêmement désirable. Séduit par son charme et sa beauté, il en tombe amoureux. Mais Sophie ignore les avances du jeune homme...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Épisode 5 : Le Libertin de qualité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 5Première diffusion
  France : 1986Réalisation
@@ -586,8 +744,43 @@
 Marianne Basler (Julie, sa nièce)
 France Zobda (Melle Macao, la soubrette)
 Résumé détaillé
-Sonstiges. Un homme, doté d'une puissance virile étonnante, choisit de la mettre au service de ses besoins financiers. Bien payé, il surmonte tous ses dégoûts, fait sa cour aux épouses des hommes les plus riches et obtient auprès de l'une d'elles une sorte de bureau pour l'obtention de faveurs d'État. Madame de Saint-Just, maquerelle de haute volée, facilite les rapports de ce jeune aristocrate désargenté et de moralité douteuse avec des dames sur le retour mais toujours prêtes à monnayer quelques instants d'amour. Sa gouvernante, belle mûlatresse espiègle, concourt à la bonne réussite de ces pratiques.
-Épisode 6 : La Serre
+Sonstiges. Un homme, doté d'une puissance virile étonnante, choisit de la mettre au service de ses besoins financiers. Bien payé, il surmonte tous ses dégoûts, fait sa cour aux épouses des hommes les plus riches et obtient auprès de l'une d'elles une sorte de bureau pour l'obtention de faveurs d'État. Madame de Saint-Just, maquerelle de haute volée, facilite les rapports de ce jeune aristocrate désargenté et de moralité douteuse avec des dames sur le retour mais toujours prêtes à monnayer quelques instants d'amour. Sa gouvernante, belle mûlatresse espiègle, concourt à la bonne réussite de ces pratiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Épisode 6 : La Serre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 6Première diffusion
  France : 1987Réalisation
@@ -599,8 +792,43 @@
 Philippe Auriault (le fils du boulanger)
 Paul Clairy (le boulanger)
 Résumé détaillé
-Un homme fortuné est sur le point d'avoir un moment d'intimité avec sa femme. Soudain, le couple entend un bruit étrange.
-Épisode 7 : Un traitement justifié
+Un homme fortuné est sur le point d'avoir un moment d'intimité avec sa femme. Soudain, le couple entend un bruit étrange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Épisode 7 : Un traitement justifié</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 7Première diffusion
  France : 1990Réalisation
@@ -612,8 +840,43 @@
 Denis Laustriat (Simon)
 Sylvain Schwartz (l'abbé)
 Résumé détaillé
-Maître Jean, riche et vieux marchand, est nanti d'une jeune et belle épouse. Quoique Blanche soit d'une fidélité absolue, son barbon, tenaillé par la jalousie, la cloître en l'accusant des pires turpitudes.
-Épisode 8 : Le Demi-mariage ou Le triomphe de la vertu
+Maître Jean, riche et vieux marchand, est nanti d'une jeune et belle épouse. Quoique Blanche soit d'une fidélité absolue, son barbon, tenaillé par la jalousie, la cloître en l'accusant des pires turpitudes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Épisode 8 : Le Demi-mariage ou Le triomphe de la vertu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 8Première diffusion
  France : 1990Réalisation
@@ -624,8 +887,43 @@
 Grégoire Ingold, Béatrice Lefoulon (la soubrette)
 Myriam Moszko (la femme de chambre)
 Résumé détaillé
-Le Comte de... confie à son ami le Marquis de... son intention de se marier, mais « à demi » seulement. Le Marquis est de son avis et conte à son ami sa manière de vivre en bonne intelligence avec sa femme. Tous deux vivent séparés, mais bons amis, le marquis demandant à sa femme des nouvelles de ses amants, celle-ci témoignant des mêmes marques d'attention à l'égard du Marquis. N'est-ce pas la meilleure façon de ne pas rendre étouffants les liens du mariage ?
-Épisode 9 : La Revanche
+Le Comte de... confie à son ami le Marquis de... son intention de se marier, mais « à demi » seulement. Le Marquis est de son avis et conte à son ami sa manière de vivre en bonne intelligence avec sa femme. Tous deux vivent séparés, mais bons amis, le marquis demandant à sa femme des nouvelles de ses amants, celle-ci témoignant des mêmes marques d'attention à l'égard du Marquis. N'est-ce pas la meilleure façon de ne pas rendre étouffants les liens du mariage ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Épisode 9 : La Revanche</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 9Première diffusion
  France : 1990Réalisation
@@ -638,8 +936,43 @@
 Frankie Pain (l'aubergiste)
 Béatrice Favier (la servante)
 Résumé détaillé
-Monsieur de Garelle s'est séparé de son épouse qui le trompait effrontément avec monsieur de Chantever. Alors qu'il se trouve avec sa maîtresse, Mariette, il revoit son ex-femme et semble de nouveau conquis par ses charmes. Pour se venger, il entreprend de la reconquérir...
-Épisode 10 : L'Épreuve d'amour
+Monsieur de Garelle s'est séparé de son épouse qui le trompait effrontément avec monsieur de Chantever. Alors qu'il se trouve avec sa maîtresse, Mariette, il revoit son ex-femme et semble de nouveau conquis par ses charmes. Pour se venger, il entreprend de la reconquérir...</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Épisode 10 : L'Épreuve d'amour</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 10Première diffusion
  France : 1990Réalisation
@@ -669,8 +1002,43 @@
 Francine Debaisieux (une matrone)
 Cécile Zimmer (une matrone)
 Résumé détaillé
-En 1854, Vincent Gonzague, héritier du duché de Mantoue doit épouser la fille du grand-duc et de la grande-duchesse de Medicis. Les rumeurs les plus folles circulent sur la virilité du jeune homme : d'aucuns prétendent qu'il est impuissant, puisqu'il n'a pu consommer son premier mariage.
-Épisode 11 : Almanach des adresses des demoiselles de Paris
+En 1854, Vincent Gonzague, héritier du duché de Mantoue doit épouser la fille du grand-duc et de la grande-duchesse de Medicis. Les rumeurs les plus folles circulent sur la virilité du jeune homme : d'aucuns prétendent qu'il est impuissant, puisqu'il n'a pu consommer son premier mariage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Épisode 11 : Almanach des adresses des demoiselles de Paris</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 11Première diffusion
  France : 1990Réalisation
@@ -681,8 +1049,43 @@
 Jean Mylonas (Marquis de Sade)
 Gérard Villain (l’hôtelier)
 Résumé détaillé
-Sous la révolution française, un jeune aristocrate trouve chez un libraire un almanach qui recense les plus belles et les plus curieuses prostituées de Paris... Aiguillonné par cette lecture, il entreprend une épuisante course à travers la capitale, où il découvre que l'auteur de l'almanach n'a rien inventé.
-Épisode 12 : La Dame galante
+Sous la révolution française, un jeune aristocrate trouve chez un libraire un almanach qui recense les plus belles et les plus curieuses prostituées de Paris... Aiguillonné par cette lecture, il entreprend une épuisante course à travers la capitale, où il découvre que l'auteur de l'almanach n'a rien inventé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Épisode 12 : La Dame galante</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 12Première diffusion
  France : 1990Réalisation
@@ -695,8 +1098,43 @@
 Michel Godon (Guillaume)
 André Lourdelle (aubergiste)
 Résumé détaillé
-Au XVIe siècle, un soir dans une auberge, trois voyageurs discutent. Ils évoquent les choses de l'amour et se montrent très suggestifs, laissant aller leur imagination.
-Épisode 13 : Le Partenaire inattendu
+Au XVIe siècle, un soir dans une auberge, trois voyageurs discutent. Ils évoquent les choses de l'amour et se montrent très suggestifs, laissant aller leur imagination.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Épisode 13 : Le Partenaire inattendu</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 13Première diffusion
  France : 1990Réalisation
@@ -708,8 +1146,43 @@
 Renaud Marx
 Thierry Bearzatto
 Résumé détaillé
-À la fin du Moyen Âge, Nicolas et Absalon, deux jeunes clercs, sont engagés chez un notaire dont la femme, Diane, est une superbe créature. Également éblouis par la belle, ils décident de concourir pour la séduire. Ce qu'ils ne savent pas, c'est que leur vieux maître est un voyeur qui réchauffe ses sens endormis en regardant sa femme frémir dans les bras des jeunes hommes.
-Épisode 14 : La Mandragore
+À la fin du Moyen Âge, Nicolas et Absalon, deux jeunes clercs, sont engagés chez un notaire dont la femme, Diane, est une superbe créature. Également éblouis par la belle, ils décident de concourir pour la séduire. Ce qu'ils ne savent pas, c'est que leur vieux maître est un voyeur qui réchauffe ses sens endormis en regardant sa femme frémir dans les bras des jeunes hommes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Épisode 14 : La Mandragore</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 14Première diffusion
  France : 1990Réalisation
@@ -720,8 +1193,43 @@
 Nadine Spinoza
 Luc-Antoine Salmont
 Résumé détaillé
-Un Florentin, nommé Micia Calfucci, est marié avec Lucrèce, une jeune, jolie et honnête femme. Leur bonheur serait total s'ils pouvaient avoir un enfant. Mais, malheureusement, la nature se dérobe. M. Calfucci attend en vain. Un jeune roué, Callimaque, fait la connaissance de Calfucci qui lui conte son infortune. Callimaque est présenté à l'épouse qu'il trouve tout à fait à son goût et entreprend de la séduire. Mais, la belle résiste.
-Épisode 15 : La Fessée
+Un Florentin, nommé Micia Calfucci, est marié avec Lucrèce, une jeune, jolie et honnête femme. Leur bonheur serait total s'ils pouvaient avoir un enfant. Mais, malheureusement, la nature se dérobe. M. Calfucci attend en vain. Un jeune roué, Callimaque, fait la connaissance de Calfucci qui lui conte son infortune. Callimaque est présenté à l'épouse qu'il trouve tout à fait à son goût et entreprend de la séduire. Mais, la belle résiste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Épisode 15 : La Fessée</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 15Première diffusion
  France : 1990Réalisation
@@ -733,8 +1241,43 @@
 Marc Legein (Luke)
 Mieke Uitterlinden (La cuisinière)
 Résumé détaillé
-Mariette, une jolie tisserande, se laisse courtiser par un jeune homme. La patronne et parente de la jeune fille s'en aperçoit. Arrive le jour de la Saint-Innocence qui veut que les pécheresses soient fessées. Sous les yeux de tout l'atelier, Mariette reçoit donc le fouet. Humiliée, elle décide de se venger. Pour ce faire, elle pousse le marchand à séduire la patronne qui, chaque fois qu'il est sur le point de lui faire l'amour, trouve une bonne raison pour interrompre les ébats. La frustration de la patronne s'accroissant, elle demande conseil à Mariette. Celle-ci organise un rendez-vous dans la grange, tout en prévenant le mari.
-Épisode 16 : L'Élève
+Mariette, une jolie tisserande, se laisse courtiser par un jeune homme. La patronne et parente de la jeune fille s'en aperçoit. Arrive le jour de la Saint-Innocence qui veut que les pécheresses soient fessées. Sous les yeux de tout l'atelier, Mariette reçoit donc le fouet. Humiliée, elle décide de se venger. Pour ce faire, elle pousse le marchand à séduire la patronne qui, chaque fois qu'il est sur le point de lui faire l'amour, trouve une bonne raison pour interrompre les ébats. La frustration de la patronne s'accroissant, elle demande conseil à Mariette. Celle-ci organise un rendez-vous dans la grange, tout en prévenant le mari.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Épisode 16 : L'Élève</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 16Première diffusion
  France : 1990Réalisation
@@ -746,8 +1289,43 @@
 Agnès Cassandre (la première femme de chambre)
 Sandrine Lemaire (la dernière femme de chambre)
 Résumé détaillé
-Mr Desgrands, bourgeois aisé, change souvent de femme de chambre. La nouvelle, Suzon, est fort appétissante. Et point farouche. De l'autre côté du mur, par un trou habilement creusé, Jean, le neveu ne perd pas une miette du spectacle : Suzon donne à voir, et un peu à toucher. Desgrands, pour appâter la petite lui promet le neveu en mariage, si elle consent à se donner d'abord à lui.
-Épisode 17 : Le Signe
+Mr Desgrands, bourgeois aisé, change souvent de femme de chambre. La nouvelle, Suzon, est fort appétissante. Et point farouche. De l'autre côté du mur, par un trou habilement creusé, Jean, le neveu ne perd pas une miette du spectacle : Suzon donne à voir, et un peu à toucher. Desgrands, pour appâter la petite lui promet le neveu en mariage, si elle consent à se donner d'abord à lui.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Épisode 17 : Le Signe</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 17Première diffusion
  France : 1990Réalisation
@@ -760,8 +1338,43 @@
 Mark Klein Essing (Jean-Louis)
 Mieke Uitterlinder (la boulangère)
 Résumé détaillé
-La baronne de Grangerie s'ennuie et passe tout son temps à faire de la couture. Son mari ne s'occupe guère d'elle. Sa vie est soudainement transformée quand elle découvre une femme de l'autre côté de la rue, qui invite les hommes à entrer chez elle.
-Épisode 18 : Hercule aux pieds d'Omphale
+La baronne de Grangerie s'ennuie et passe tout son temps à faire de la couture. Son mari ne s'occupe guère d'elle. Sa vie est soudainement transformée quand elle découvre une femme de l'autre côté de la rue, qui invite les hommes à entrer chez elle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Épisode 18 : Hercule aux pieds d'Omphale</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 18Première diffusion
  France : 1990Réalisation
@@ -774,8 +1387,43 @@
 Philippe Peltier (l'Antiquaire)
 Jeannette Herreng (la Servante)
 Résumé détaillé
-Au début du XIXe siècle, Théophile, jeune collégien provincial, arrive à Paris pour passer quelques jours chez son oncle. Il découvre sa cousine et sa tante, nouvelle épouse de son oncle, charmantes. Le jeune homme est logé dans un ancien pavillon d'amour qui se trouve dans le jardin. Au mur, une tapisserie représente un sujet mythologique : Hercule aux pieds d'Omphale. Cette image trouble le jeune homme qui reconnait dans les traits d'Omphale ceux de sa voluptueuse tante et dans Hercule, une reproduction parfaite de son oncle. Trouble d'autant plus grand que lors de sa première nuit passée là, Omphale semble descendre de la tapisserie et venir à lui.
-Épisode 19 : Lady Roxanne
+Au début du XIXe siècle, Théophile, jeune collégien provincial, arrive à Paris pour passer quelques jours chez son oncle. Il découvre sa cousine et sa tante, nouvelle épouse de son oncle, charmantes. Le jeune homme est logé dans un ancien pavillon d'amour qui se trouve dans le jardin. Au mur, une tapisserie représente un sujet mythologique : Hercule aux pieds d'Omphale. Cette image trouble le jeune homme qui reconnait dans les traits d'Omphale ceux de sa voluptueuse tante et dans Hercule, une reproduction parfaite de son oncle. Trouble d'autant plus grand que lors de sa première nuit passée là, Omphale semble descendre de la tapisserie et venir à lui.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Épisode 19 : Lady Roxanne</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 19Première diffusion
  France : 1991Réalisation
@@ -786,8 +1434,43 @@
 Francis Lorenzo (Perrault)
 Mabel Ordonez (Lucette)
 Résumé détaillé
-En Angleterre, au XVIIIe siècle, Lady Roxane est aussi jolie que pauvre. Son propriétaire, Monsieur Perrault, lui ferait volontiers cadeau de son loyer si elle se donnait à lui. Mais la farouche Roxane ne veut pas se prostituer et elle résiste... Il faudra toute l'ingéniosité de sa servante pour que Roxane tombe dans les bras de Monsieur Perrault, après une nuit d'amour et de quiproquos.
-Épisode 20 : Elle et lui
+En Angleterre, au XVIIIe siècle, Lady Roxane est aussi jolie que pauvre. Son propriétaire, Monsieur Perrault, lui ferait volontiers cadeau de son loyer si elle se donnait à lui. Mais la farouche Roxane ne veut pas se prostituer et elle résiste... Il faudra toute l'ingéniosité de sa servante pour que Roxane tombe dans les bras de Monsieur Perrault, après une nuit d'amour et de quiproquos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Épisode 20 : Elle et lui</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 20Première diffusion
  France : 1991Réalisation
@@ -800,8 +1483,43 @@
 José Antonio Navarro (Benoit, Beltran et Leporello)
 Manuel Rochel (Faustine et Faustin)
 Résumé détaillé
-Vers 1760. Valentin aime Faustine, et les deux adolescents sont promis au mariage. Hélas, Valentin est un macho avant l'heure : l'homme ordonne, la femme obéit, le garçon qui séduit obéit à sa nature, la jeune fille qui cède à sa malice naturelle... Pour ramener son amoureux à une plus juste vision des choses, Faustine lui impose d'échanger leurs vêtements toute une journée : il ira vêtu en femme, elle en homme.
-Épisode 21 : La Conversion
+Vers 1760. Valentin aime Faustine, et les deux adolescents sont promis au mariage. Hélas, Valentin est un macho avant l'heure : l'homme ordonne, la femme obéit, le garçon qui séduit obéit à sa nature, la jeune fille qui cède à sa malice naturelle... Pour ramener son amoureux à une plus juste vision des choses, Faustine lui impose d'échanger leurs vêtements toute une journée : il ira vêtu en femme, elle en homme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Épisode 21 : La Conversion</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 21Première diffusion
  France : 1991Réalisation
@@ -811,8 +1529,43 @@
 Natacha Mircovitch (Juliette)
 Laurent Zunquin, Christophe Sindeu, Eric Franklin, Anick Belaubre, Lybert Navirot, Roger Tabrin
 Résumé détaillé
-Juliette et Erosie, deux jolies jeunes filles, s'aiment tendrement. Un peu trop. Mais le récent mariage d'Erosie les a séparées quelques jours. Lorsqu'elles se retrouvent, la jeune épouse raconte à son amie horrifiée ce que furent ses noces et les épisodes libertins qui précédèrent. Mais plus le récit avance, plus la naïve Juliette doute.
-Épisode 22 : Le Lotus d'or
+Juliette et Erosie, deux jolies jeunes filles, s'aiment tendrement. Un peu trop. Mais le récent mariage d'Erosie les a séparées quelques jours. Lorsqu'elles se retrouvent, la jeune épouse raconte à son amie horrifiée ce que furent ses noces et les épisodes libertins qui précédèrent. Mais plus le récit avance, plus la naïve Juliette doute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Épisode 22 : Le Lotus d'or</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 22Première diffusion
  France : 1991Réalisation
@@ -826,8 +1579,43 @@
 Solange N'Guien (Canelle)
 Phan Lan (la servante)
 Résumé détaillé
-Ximen Qing, jeune et riche mandarin, délaisse ses épouses et va batifoler chez les courtisanes. L'une des épouses, la capiteuse Lotus d'or, lasse de se languir, se console avec un petit valet.
-Épisode 23 : L'Experte Halima
+Ximen Qing, jeune et riche mandarin, délaisse ses épouses et va batifoler chez les courtisanes. L'une des épouses, la capiteuse Lotus d'or, lasse de se languir, se console avec un petit valet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Épisode 23 : L'Experte Halima</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 23Première diffusion
  France : 1991Réalisation
@@ -840,8 +1628,43 @@
 Laetitia Colonna D'Istria (Étoile du Matin)
 Belkacem Tatem (Osta-Obeid)
 Résumé détaillé
-Kamar, étranger sympathique, arrive à Bassa. Là, il s'éprend d'une folle passion pour la jeune femme du vieux Obeid : Halima. Mais nul n'a survécu qui ait pu se vanter d'avoir obtenu les faveurs de la belle capricieuse. Comment le vigoureux Kamar sortira de cette voluptueuse sept-cent-quatre-vingtième nuit ?
-Épisode 24 : La Grève de l'amour
+Kamar, étranger sympathique, arrive à Bassa. Là, il s'éprend d'une folle passion pour la jeune femme du vieux Obeid : Halima. Mais nul n'a survécu qui ait pu se vanter d'avoir obtenu les faveurs de la belle capricieuse. Comment le vigoureux Kamar sortira de cette voluptueuse sept-cent-quatre-vingtième nuit ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Épisode 24 : La Grève de l'amour</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 24Première diffusion
  France : 1991Réalisation
@@ -854,8 +1677,43 @@
 Zsuzsa Nyertes (Lampito)
 Sádor Teri (Euripides)
 Résumé détaillé
-La femme de Méton et maîtresse d'Euripide est délaissée par les deux hommes, qui préfèrent guerroyer contre Sparte plutôt que de l'honorer de leur tendresse. Alors que la guerre contre Sparte fait rage, les hommes les plus vaillants de la cité passent désormais le plus clair de leur temps au combat. C'est le cas de Méton et Euripide, valeureux soldats qui se partagent régulièrement les honneurs guerriers. Mais les deux hommes ont bien plus en commun : ils sont en effet les favoris de la même femme, mariée à Méton et, parallèlement, maîtresse d'Euripide. Celle-ci ne supporte plus l'absence exagérément prolongée de ses deux amants.
-Épisode 25 : Les Leçons de Bucciuolo
+La femme de Méton et maîtresse d'Euripide est délaissée par les deux hommes, qui préfèrent guerroyer contre Sparte plutôt que de l'honorer de leur tendresse. Alors que la guerre contre Sparte fait rage, les hommes les plus vaillants de la cité passent désormais le plus clair de leur temps au combat. C'est le cas de Méton et Euripide, valeureux soldats qui se partagent régulièrement les honneurs guerriers. Mais les deux hommes ont bien plus en commun : ils sont en effet les favoris de la même femme, mariée à Méton et, parallèlement, maîtresse d'Euripide. Celle-ci ne supporte plus l'absence exagérément prolongée de ses deux amants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Épisode 25 : Les Leçons de Bucciuolo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 25Première diffusion
  France : 1991Réalisation
@@ -870,8 +1728,43 @@
 György Csák (1er frère)
 Miklós Nagy (2e frère)
 Résumé détaillé
-Bucciuolo vient d'achever ses études de droit et demande à son maître de lui enseigner quelque science belle et secrète ignorée par l'Université. Et le maître complaisant de lui enseigner comment séduire une belle inconnue... Hélas, la pratique recèle des surprises et la leçon profite à celui qui la donne
-Épisode 26 : Le Style Pompadour
+Bucciuolo vient d'achever ses études de droit et demande à son maître de lui enseigner quelque science belle et secrète ignorée par l'Université. Et le maître complaisant de lui enseigner comment séduire une belle inconnue... Hélas, la pratique recèle des surprises et la leçon profite à celui qui la donne</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Épisodes_de_Série_rose</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pisodes_de_S%C3%A9rie_rose</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Épisode 26 : Le Style Pompadour</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Numéro de production
 26Première diffusion
  France : 1991Réalisation
